--- a/Files/Protocol.xlsx
+++ b/Files/Protocol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65c248228c768da9/aSimpleEnglishGame/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65c248228c768da9/aSimpleEnglishGame/aSimpleEnglishGame/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{4048D065-B4AE-4446-AD84-924E1453603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9893DC86-FCE8-4C17-9FBA-B53C6B82FE4C}"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E79974-0C42-E444-9DE8-625CE318B54D}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
